--- a/sputnik/personal/ee/150ee.xlsx
+++ b/sputnik/personal/ee/150ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +39,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>02.06,2018</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -56,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +82,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -145,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -158,7 +156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,7 +165,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,18 +172,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,208 +500,239 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43449</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>116</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>638</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>66</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43281</v>
+        <v>43577</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>216</v>
+        <v>638</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>100</v>
+        <f>C4-C2</f>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>499.51000000000005</v>
+      </c>
+      <c r="H4" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>C5-C3</f>
+        <v>209</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D5*E5</f>
+        <v>499.51000000000005</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43393</v>
+        <v>43717</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>416</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>794.51</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>794.51</v>
+      </c>
+      <c r="H6" s="14">
+        <v>794.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>166</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43449</v>
+        <v>43843</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>638</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>222</v>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>152</v>
       </c>
       <c r="E8" s="8">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>685.5</v>
+      </c>
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>805</v>
+      </c>
+      <c r="H8" s="14">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>166</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>49</v>
       </c>
       <c r="E9" s="3">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>119.5</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43577</v>
+        <v>43874</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>638</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>0</v>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>152</v>
       </c>
       <c r="E10" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>0</v>
+        <v>685.5</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>805</v>
+      </c>
+      <c r="H10" s="14">
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,39 +740,46 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>375</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>209</v>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>49</v>
       </c>
       <c r="E11" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>499.51000000000005</v>
-      </c>
+        <v>119.5</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43717</v>
+        <v>43900</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>10</v>
+      <c r="C12" s="13">
+        <v>1226</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
       </c>
       <c r="E12" s="8">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <v>794.51</v>
+        <v>507.27</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>719.98</v>
+      </c>
+      <c r="H12" s="14">
+        <v>719.98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -757,156 +787,53 @@
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
+      <c r="C13" s="13">
+        <v>584</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>212.71</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43843</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="16">
-        <v>152</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <v>685.5</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(G4:G13)</f>
+        <v>3624</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H4:H13)</f>
+        <v>3624.4900000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="16">
-        <v>49</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43874</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16">
-        <v>152</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <v>685.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="16">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>0.49000000000023647</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/150ee.xlsx
+++ b/sputnik/personal/ee/150ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -179,6 +179,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,11 +587,11 @@
         <f>D4*E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <f>SUM(F4,F5)</f>
         <v>499.51000000000005</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="15">
         <v>500</v>
       </c>
     </row>
@@ -803,36 +804,87 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
+      <c r="A14" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1465</v>
+      </c>
+      <c r="D14" s="13">
+        <f>C14-C12</f>
+        <v>239</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>1073.1100000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>1374.43</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1374.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>708</v>
+      </c>
+      <c r="D15" s="13">
+        <f>C15-C13</f>
+        <v>124</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>301.32</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14">
-        <f>SUM(G4:G13)</f>
-        <v>3624</v>
-      </c>
-      <c r="H14" s="14">
-        <f>SUM(H4:H13)</f>
-        <v>3624.4900000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="14">
+        <f>SUM(G4:G15)</f>
+        <v>4998.43</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(H4:H15)</f>
+        <v>4999.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
-        <v>0.49000000000023647</v>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
+        <v>0.78999999999996362</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/150ee.xlsx
+++ b/sputnik/personal/ee/150ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -855,36 +855,89 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
-        <v>11</v>
+      <c r="A16" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1615</v>
+      </c>
+      <c r="D16" s="13">
+        <f>C16-C14</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16*E16</f>
+        <v>673.5</v>
       </c>
       <c r="G16" s="14">
-        <f>SUM(G4:G15)</f>
-        <v>4998.43</v>
+        <f>SUM(F16,F17)</f>
+        <v>819.3</v>
       </c>
       <c r="H16" s="14">
-        <f>SUM(H4:H15)</f>
-        <v>4999.22</v>
+        <v>685.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>768</v>
+      </c>
+      <c r="D17" s="13">
+        <f>C17-C15</f>
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>145.80000000000001</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>0.78999999999996362</v>
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(G4:G17)</f>
+        <v>5817.7300000000005</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H4:H17)</f>
+        <v>5828.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>10.389999999999418</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/150ee.xlsx
+++ b/sputnik/personal/ee/150ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,35 +908,86 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="A18" s="4">
+        <v>44130</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1765</v>
+      </c>
+      <c r="D18" s="13">
+        <f>C18-C16</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18*E18</f>
+        <v>706.5</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(F18,F19)</f>
+        <v>834</v>
+      </c>
+      <c r="H18" s="14">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>818</v>
+      </c>
+      <c r="D19" s="13">
+        <f>C19-C17</f>
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19*E19</f>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G20" s="14">
         <f>SUM(G4:G17)</f>
         <v>5817.7300000000005</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H20" s="14">
         <f>SUM(H4:H17)</f>
         <v>5828.12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <f>SUM(H20,-G20)</f>
         <v>10.389999999999418</v>
       </c>
     </row>

--- a/sputnik/personal/ee/150ee.xlsx
+++ b/sputnik/personal/ee/150ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,22 +592,53 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44348</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2085</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>160</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>753.6</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>855.6</v>
+      </c>
+      <c r="H8" s="8">
+        <v>855.6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>898</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8"/>
     </row>
@@ -678,7 +709,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -688,7 +719,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -702,14 +733,24 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -718,8 +759,8 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -728,8 +769,28 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/150ee.xlsx
+++ b/sputnik/personal/ee/150ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,22 +643,53 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2245</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>160</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>753.6</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>855.6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>855.6</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>938</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
